--- a/#Documents/Design_PaymentPage.xlsx
+++ b/#Documents/Design_PaymentPage.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MAMP\htdocs\DevEnv_iamcmi\#Documents\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="60" windowWidth="18195" windowHeight="6975"/>
+    <workbookView xWindow="120" yWindow="60" windowWidth="18192" windowHeight="6972"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="52">
   <si>
     <t>Payment Method</t>
   </si>
@@ -515,6 +520,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -562,7 +570,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -597,7 +605,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -811,29 +819,30 @@
   </sheetPr>
   <dimension ref="A1:AB68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="55" workbookViewId="0">
-      <selection activeCell="AB27" sqref="AB27"/>
+    <sheetView tabSelected="1" zoomScale="107" zoomScaleNormal="107" zoomScalePageLayoutView="55" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.5703125" customWidth="1"/>
-    <col min="4" max="4" width="5.42578125" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" customWidth="1"/>
-    <col min="7" max="7" width="7.28515625" customWidth="1"/>
-    <col min="8" max="8" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="17.28515625" customWidth="1"/>
-    <col min="21" max="21" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.5546875" customWidth="1"/>
+    <col min="4" max="4" width="5.44140625" customWidth="1"/>
+    <col min="6" max="6" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="17.33203125" customWidth="1"/>
+    <col min="21" max="21" width="15.109375" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="16" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="17.85546875" customWidth="1"/>
-    <col min="27" max="27" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="23.5546875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="17.88671875" customWidth="1"/>
+    <col min="27" max="27" width="17.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
       <c r="J1" s="31" t="s">
         <v>23</v>
       </c>
@@ -841,7 +850,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A2" s="24" t="s">
         <v>17</v>
       </c>
@@ -857,7 +866,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -898,7 +907,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="8" t="s">
         <v>8</v>
       </c>
@@ -931,7 +940,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="8"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -958,13 +967,11 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="B6" s="2"/>
       <c r="C6" s="20" t="s">
         <v>14</v>
       </c>
@@ -993,7 +1000,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="8"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -1022,7 +1029,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A8" s="8"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -1046,7 +1053,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="16" t="s">
         <v>4</v>
       </c>
@@ -1075,7 +1082,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="10" spans="1:28" ht="15.75" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:28" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="8" t="s">
         <v>0</v>
       </c>
@@ -1107,7 +1114,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:28" ht="15.75" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:28" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="8"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -1131,7 +1138,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:28" ht="15.75" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:28" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="8" t="s">
         <v>7</v>
       </c>
@@ -1159,7 +1166,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:28" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:28" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A13" s="8"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -1183,7 +1190,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="1:28" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:28" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A14" s="10"/>
       <c r="B14" s="11"/>
       <c r="C14" s="11"/>
@@ -1207,7 +1214,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="15" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="8"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -1231,7 +1238,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A16" s="10" t="s">
         <v>11</v>
       </c>
@@ -1259,7 +1266,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="17" spans="20:28" x14ac:dyDescent="0.25">
+    <row r="17" spans="20:28" x14ac:dyDescent="0.3">
       <c r="T17" s="35" t="s">
         <v>32</v>
       </c>
@@ -1274,7 +1281,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="20:28" x14ac:dyDescent="0.25">
+    <row r="18" spans="20:28" x14ac:dyDescent="0.3">
       <c r="T18" s="35" t="s">
         <v>32</v>
       </c>
@@ -1289,7 +1296,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="19" spans="20:28" x14ac:dyDescent="0.25">
+    <row r="19" spans="20:28" x14ac:dyDescent="0.3">
       <c r="T19" s="35" t="s">
         <v>32</v>
       </c>
@@ -1304,7 +1311,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="20" spans="20:28" x14ac:dyDescent="0.25">
+    <row r="20" spans="20:28" x14ac:dyDescent="0.3">
       <c r="T20" s="35" t="s">
         <v>32</v>
       </c>
@@ -1319,7 +1326,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="21" spans="20:28" x14ac:dyDescent="0.25">
+    <row r="21" spans="20:28" x14ac:dyDescent="0.3">
       <c r="T21" s="35" t="s">
         <v>32</v>
       </c>
@@ -1334,7 +1341,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="22" spans="20:28" x14ac:dyDescent="0.25">
+    <row r="22" spans="20:28" x14ac:dyDescent="0.3">
       <c r="T22" s="35" t="s">
         <v>32</v>
       </c>
@@ -1349,7 +1356,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="23" spans="20:28" x14ac:dyDescent="0.25">
+    <row r="23" spans="20:28" x14ac:dyDescent="0.3">
       <c r="T23" s="35" t="s">
         <v>32</v>
       </c>
@@ -1364,7 +1371,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="24" spans="20:28" x14ac:dyDescent="0.25">
+    <row r="24" spans="20:28" x14ac:dyDescent="0.3">
       <c r="T24" s="35" t="s">
         <v>32</v>
       </c>
@@ -1379,12 +1386,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="25" spans="20:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="20:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="T25" s="32" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="20:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="20:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="T26" s="32" t="s">
         <v>37</v>
       </c>
@@ -1392,37 +1399,37 @@
         <v>33</v>
       </c>
     </row>
-    <row r="33" spans="20:24" x14ac:dyDescent="0.25">
+    <row r="33" spans="20:24" x14ac:dyDescent="0.3">
       <c r="T33" s="33" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="35" spans="20:24" x14ac:dyDescent="0.25">
+    <row r="35" spans="20:24" x14ac:dyDescent="0.3">
       <c r="T35" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="36" spans="20:24" x14ac:dyDescent="0.25">
+    <row r="36" spans="20:24" x14ac:dyDescent="0.3">
       <c r="T36" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="37" spans="20:24" x14ac:dyDescent="0.25">
+    <row r="37" spans="20:24" x14ac:dyDescent="0.3">
       <c r="T37" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="38" spans="20:24" x14ac:dyDescent="0.25">
+    <row r="38" spans="20:24" x14ac:dyDescent="0.3">
       <c r="T38" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="41" spans="20:24" x14ac:dyDescent="0.25">
+    <row r="41" spans="20:24" x14ac:dyDescent="0.3">
       <c r="T41" s="33" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="42" spans="20:24" x14ac:dyDescent="0.25">
+    <row r="42" spans="20:24" x14ac:dyDescent="0.3">
       <c r="T42" s="34" t="s">
         <v>31</v>
       </c>
@@ -1439,7 +1446,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="43" spans="20:24" x14ac:dyDescent="0.25">
+    <row r="43" spans="20:24" x14ac:dyDescent="0.3">
       <c r="T43" s="35" t="s">
         <v>32</v>
       </c>
@@ -1452,7 +1459,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="44" spans="20:24" x14ac:dyDescent="0.25">
+    <row r="44" spans="20:24" x14ac:dyDescent="0.3">
       <c r="T44" s="35" t="s">
         <v>32</v>
       </c>
@@ -1465,7 +1472,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="45" spans="20:24" x14ac:dyDescent="0.25">
+    <row r="45" spans="20:24" x14ac:dyDescent="0.3">
       <c r="T45" s="35" t="s">
         <v>32</v>
       </c>
@@ -1478,7 +1485,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="46" spans="20:24" x14ac:dyDescent="0.25">
+    <row r="46" spans="20:24" x14ac:dyDescent="0.3">
       <c r="T46" s="35" t="s">
         <v>32</v>
       </c>
@@ -1491,7 +1498,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="20:24" x14ac:dyDescent="0.25">
+    <row r="48" spans="20:24" x14ac:dyDescent="0.3">
       <c r="W48" t="s">
         <v>49</v>
       </c>
@@ -1499,7 +1506,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="5"/>
       <c r="B51" s="6"/>
       <c r="C51" s="6"/>
@@ -1510,7 +1517,7 @@
       <c r="H51" s="6"/>
       <c r="I51" s="7"/>
     </row>
-    <row r="52" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="8" t="s">
         <v>8</v>
       </c>
@@ -1527,7 +1534,7 @@
       <c r="H52" s="21"/>
       <c r="I52" s="9"/>
     </row>
-    <row r="53" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="8"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -1538,7 +1545,7 @@
       <c r="H53" s="2"/>
       <c r="I53" s="9"/>
     </row>
-    <row r="54" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="8" t="s">
         <v>15</v>
       </c>
@@ -1557,7 +1564,7 @@
       <c r="H54" s="2"/>
       <c r="I54" s="9"/>
     </row>
-    <row r="55" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="8"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -1570,7 +1577,7 @@
       <c r="H55" s="2"/>
       <c r="I55" s="9"/>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" s="8"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
@@ -1581,7 +1588,7 @@
       <c r="H56" s="2"/>
       <c r="I56" s="9"/>
     </row>
-    <row r="57" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="16" t="s">
         <v>4</v>
       </c>
@@ -1594,7 +1601,7 @@
       <c r="H57" s="13"/>
       <c r="I57" s="18"/>
     </row>
-    <row r="58" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="8" t="s">
         <v>0</v>
       </c>
@@ -1613,7 +1620,7 @@
       </c>
       <c r="I58" s="9"/>
     </row>
-    <row r="59" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="8"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
@@ -1624,7 +1631,7 @@
       <c r="H59" s="2"/>
       <c r="I59" s="9"/>
     </row>
-    <row r="60" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="8" t="s">
         <v>7</v>
       </c>
@@ -1639,7 +1646,7 @@
       <c r="H60" s="1"/>
       <c r="I60" s="9"/>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61" s="8"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
@@ -1650,7 +1657,7 @@
       <c r="H61" s="2"/>
       <c r="I61" s="9"/>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62" s="10"/>
       <c r="B62" s="11"/>
       <c r="C62" s="11"/>
@@ -1661,7 +1668,7 @@
       <c r="H62" s="11"/>
       <c r="I62" s="12"/>
     </row>
-    <row r="63" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="8"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -1672,7 +1679,7 @@
       <c r="H63" s="2"/>
       <c r="I63" s="9"/>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64" s="10" t="s">
         <v>11</v>
       </c>
@@ -1689,8 +1696,8 @@
       <c r="H64" s="30"/>
       <c r="I64" s="12"/>
     </row>
-    <row r="65" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66" s="10" t="s">
         <v>11</v>
       </c>
@@ -1709,8 +1716,8 @@
       <c r="H66" s="30"/>
       <c r="I66" s="12"/>
     </row>
-    <row r="67" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68" s="10" t="s">
         <v>11</v>
       </c>
@@ -1741,7 +1748,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1753,7 +1760,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
